--- a/Liquidity_bycountry_BCE.xlsx
+++ b/Liquidity_bycountry_BCE.xlsx
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,13 +412,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>31597.52</v>
+        <v>22456.52</v>
       </c>
       <c r="D2">
-        <v>258631.687135</v>
+        <v>233021.305642</v>
       </c>
       <c r="E2" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -426,12 +426,12 @@
         </is>
       </c>
       <c r="G2">
-        <v>3042445</v>
+        <v>3020206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -439,13 +439,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>122752.32</v>
+        <v>96024.94</v>
       </c>
       <c r="D3">
-        <v>787582.39146871</v>
+        <v>794385.85773688</v>
       </c>
       <c r="E3" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -453,12 +453,12 @@
         </is>
       </c>
       <c r="G3">
-        <v>12032510</v>
+        <v>12002906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>89138.57000000001</v>
+        <v>69347.99000000001</v>
       </c>
       <c r="D4">
-        <v>1164997.3525787</v>
+        <v>1160478.3461298</v>
       </c>
       <c r="E4" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -480,12 +480,12 @@
         </is>
       </c>
       <c r="G4">
-        <v>10609967</v>
+        <v>10454393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>154846.54</v>
+        <v>141251.55</v>
       </c>
       <c r="D5">
-        <v>213386.57666774</v>
+        <v>197195.08350758</v>
       </c>
       <c r="E5" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="G5">
-        <v>3839887</v>
+        <v>3788284</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>24910</v>
+        <v>8260</v>
       </c>
       <c r="D6">
-        <v>307096.72767301</v>
+        <v>286508.9788078</v>
       </c>
       <c r="E6" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>2897796</v>
+        <v>2836944</v>
       </c>
     </row>
   </sheetData>
@@ -780,25 +780,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e3a2ec7d-e900-4ee0-8b1e-fac67f483317">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cb3014e-c15e-4453-8639-5b8772973515" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA9E887-7003-4956-813B-D5A6F8E9D02C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD8DEDF-9276-433E-9244-B645A9E2AEB2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D405E2B-76FF-436F-ADF1-8381250B5386}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6CBC7E1-5E30-40EE-841F-8E1CD52BB2E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19BC590C-865D-473B-AA1D-5A0F5DA844C0}"/>
 </file>